--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H2">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I2">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J2">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N2">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O2">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P2">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q2">
-        <v>734.28846895292</v>
+        <v>229.1384921597706</v>
       </c>
       <c r="R2">
-        <v>6608.59622057628</v>
+        <v>2062.246429437936</v>
       </c>
       <c r="S2">
-        <v>0.03226720097563179</v>
+        <v>0.01586230222464442</v>
       </c>
       <c r="T2">
-        <v>0.03226720097563178</v>
+        <v>0.01586230222464442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H3">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I3">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J3">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>263.722283</v>
       </c>
       <c r="O3">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P3">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q3">
-        <v>2751.007567148903</v>
+        <v>2448.480659983717</v>
       </c>
       <c r="R3">
-        <v>24759.06810434013</v>
+        <v>22036.32593985345</v>
       </c>
       <c r="S3">
-        <v>0.1208888846930388</v>
+        <v>0.1694981050707872</v>
       </c>
       <c r="T3">
-        <v>0.1208888846930387</v>
+        <v>0.1694981050707872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H4">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I4">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J4">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N4">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O4">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P4">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q4">
-        <v>1947.9553009503</v>
+        <v>1014.685098851611</v>
       </c>
       <c r="R4">
-        <v>17531.5977085527</v>
+        <v>9132.165889664497</v>
       </c>
       <c r="S4">
-        <v>0.08559996220142288</v>
+        <v>0.0702424178020896</v>
       </c>
       <c r="T4">
-        <v>0.08559996220142287</v>
+        <v>0.0702424178020896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H5">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I5">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J5">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N5">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O5">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P5">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q5">
-        <v>2.001306255869999</v>
+        <v>4.594909455994666</v>
       </c>
       <c r="R5">
-        <v>18.01175630283</v>
+        <v>41.354185103952</v>
       </c>
       <c r="S5">
-        <v>8.79443895721681E-05</v>
+        <v>0.0003180864192605535</v>
       </c>
       <c r="T5">
-        <v>8.794438957216807E-05</v>
+        <v>0.0003180864192605535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>101.609188</v>
       </c>
       <c r="I6">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J6">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N6">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O6">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P6">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q6">
-        <v>794.7164840200693</v>
+        <v>278.6369264699471</v>
       </c>
       <c r="R6">
-        <v>7152.448356180624</v>
+        <v>2507.732338229524</v>
       </c>
       <c r="S6">
-        <v>0.03492261909694677</v>
+        <v>0.01928887240617141</v>
       </c>
       <c r="T6">
-        <v>0.03492261909694675</v>
+        <v>0.01928887240617141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>101.609188</v>
       </c>
       <c r="I7">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J7">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>263.722283</v>
       </c>
       <c r="O7">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P7">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q7">
         <v>2977.400781459578</v>
       </c>
       <c r="R7">
-        <v>26796.6070331362</v>
+        <v>26796.60703313621</v>
       </c>
       <c r="S7">
-        <v>0.1308373935619016</v>
+        <v>0.2061130392988424</v>
       </c>
       <c r="T7">
-        <v>0.1308373935619015</v>
+        <v>0.2061130392988424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>101.609188</v>
       </c>
       <c r="I8">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J8">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N8">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O8">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P8">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q8">
-        <v>2108.26160733124</v>
+        <v>1233.877095960507</v>
       </c>
       <c r="R8">
-        <v>18974.35446598116</v>
+        <v>11104.89386364457</v>
       </c>
       <c r="S8">
-        <v>0.0926443814240631</v>
+        <v>0.08541616565472182</v>
       </c>
       <c r="T8">
-        <v>0.09264438142406307</v>
+        <v>0.08541616565472182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>101.609188</v>
       </c>
       <c r="I9">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J9">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N9">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O9">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P9">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q9">
-        <v>2.166003060596</v>
+        <v>5.587500538029778</v>
       </c>
       <c r="R9">
-        <v>19.494027545364</v>
+        <v>50.287504842268</v>
       </c>
       <c r="S9">
-        <v>9.51817426327661E-05</v>
+        <v>0.000386799360418207</v>
       </c>
       <c r="T9">
-        <v>9.518174263276606E-05</v>
+        <v>0.000386799360418207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H10">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I10">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J10">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N10">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O10">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P10">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q10">
-        <v>1294.969058074655</v>
+        <v>247.9646131336554</v>
       </c>
       <c r="R10">
-        <v>11654.72152267189</v>
+        <v>2231.681518202899</v>
       </c>
       <c r="S10">
-        <v>0.05690546511468993</v>
+        <v>0.01716555606816389</v>
       </c>
       <c r="T10">
-        <v>0.05690546511468993</v>
+        <v>0.01716555606816389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H11">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I11">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J11">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>263.722283</v>
       </c>
       <c r="O11">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P11">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q11">
-        <v>4851.5942012096</v>
+        <v>2649.648925832869</v>
       </c>
       <c r="R11">
-        <v>43664.34781088641</v>
+        <v>23846.84033249583</v>
       </c>
       <c r="S11">
-        <v>0.2131960009747575</v>
+        <v>0.1834241451735644</v>
       </c>
       <c r="T11">
-        <v>0.2131960009747575</v>
+        <v>0.1834241451735644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H12">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I12">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J12">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N12">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O12">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P12">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q12">
-        <v>3435.35537857517</v>
+        <v>1098.052080284215</v>
       </c>
       <c r="R12">
-        <v>30918.19840717653</v>
+        <v>9882.468722557938</v>
       </c>
       <c r="S12">
-        <v>0.1509615186811682</v>
+        <v>0.07601356625722668</v>
       </c>
       <c r="T12">
-        <v>0.1509615186811682</v>
+        <v>0.07601356625722666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H13">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I13">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J13">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N13">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O13">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P13">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q13">
-        <v>3.529443517992999</v>
+        <v>4.97242927148811</v>
       </c>
       <c r="R13">
-        <v>31.764991661937</v>
+        <v>44.75186344339299</v>
       </c>
       <c r="S13">
-        <v>0.000155096080277032</v>
+        <v>0.0003442205416976234</v>
       </c>
       <c r="T13">
-        <v>0.000155096080277032</v>
+        <v>0.0003442205416976233</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H14">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I14">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J14">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.463916</v>
+        <v>8.226724333333333</v>
       </c>
       <c r="N14">
-        <v>70.39174800000001</v>
+        <v>24.680173</v>
       </c>
       <c r="O14">
-        <v>0.1350973942042957</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="P14">
-        <v>0.1350973942042956</v>
+        <v>0.06198126651953669</v>
       </c>
       <c r="Q14">
-        <v>250.369463142064</v>
+        <v>139.6088117591113</v>
       </c>
       <c r="R14">
-        <v>2253.325168278576</v>
+        <v>1256.479305832002</v>
       </c>
       <c r="S14">
-        <v>0.0110021090170272</v>
+        <v>0.00966453582055697</v>
       </c>
       <c r="T14">
-        <v>0.01100210901702719</v>
+        <v>0.009664535820556968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H15">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I15">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J15">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>263.722283</v>
       </c>
       <c r="O15">
-        <v>0.5061416180048238</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="P15">
-        <v>0.5061416180048237</v>
+        <v>0.6623065855236785</v>
       </c>
       <c r="Q15">
-        <v>938.0077678041106</v>
+        <v>1491.802936876905</v>
       </c>
       <c r="R15">
-        <v>8442.069910236996</v>
+        <v>13426.22643189214</v>
       </c>
       <c r="S15">
-        <v>0.04121933877512599</v>
+        <v>0.1032712959804845</v>
       </c>
       <c r="T15">
-        <v>0.04121933877512598</v>
+        <v>0.1032712959804845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H16">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I16">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J16">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.24619000000001</v>
+        <v>36.43008433333333</v>
       </c>
       <c r="N16">
-        <v>186.73857</v>
+        <v>109.290253</v>
       </c>
       <c r="O16">
-        <v>0.3583927792848171</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="P16">
-        <v>0.358392779284817</v>
+        <v>0.2744692388979848</v>
       </c>
       <c r="Q16">
-        <v>664.1919947607601</v>
+        <v>618.2242870899914</v>
       </c>
       <c r="R16">
-        <v>5977.727952846841</v>
+        <v>5564.018583809922</v>
       </c>
       <c r="S16">
-        <v>0.02918691697816289</v>
+        <v>0.04279708918394672</v>
       </c>
       <c r="T16">
-        <v>0.02918691697816289</v>
+        <v>0.04279708918394671</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H17">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I17">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J17">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06395099999999999</v>
+        <v>0.1649703333333333</v>
       </c>
       <c r="N17">
-        <v>0.191853</v>
+        <v>0.494911</v>
       </c>
       <c r="O17">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="P17">
-        <v>0.0003682085060634768</v>
+        <v>0.00124290905879997</v>
       </c>
       <c r="Q17">
-        <v>0.6823830062039999</v>
+        <v>2.799572621979333</v>
       </c>
       <c r="R17">
-        <v>6.141447055836</v>
+        <v>25.196153597814</v>
       </c>
       <c r="S17">
-        <v>2.998629358151069E-05</v>
+        <v>0.0001938027374235857</v>
       </c>
       <c r="T17">
-        <v>2.998629358151069E-05</v>
+        <v>0.0001938027374235857</v>
       </c>
     </row>
   </sheetData>
